--- a/PCAcombined/PCAcombined_predicted_factors_matrix_11.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1302893090007058</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.1100953677763693</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08717507367880781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06271617894794532</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03745094453124094</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01185872002160953</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.01374007425025026</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.0391310488107854</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.06417225399183527</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.08877155147691196</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1128710115666268</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1364360879992738</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.1594481158893358</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.1818991332280303</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2037883238169094</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2251195865172215</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2458998828122968</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2661381194361636</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2858443970426267</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.305029508114299</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3237046038087182</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.3418809747877069</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3595699085869254</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.3767825981203912</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.3935300841546189</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4098232202043101</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.4256726521160789</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.4410888071869808</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4560818894031355</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.4706618785499108</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.4848385317240686</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.4986213862956714</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5120197637092937</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5250427737383959</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5376993189526212</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.5499980992519696</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.5619476163817683</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.5735561783800833</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.5848319039324498</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.595782726622805</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6064163990775826</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6167404970044434</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6267624231293001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.04423962699263295</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.03190243628213005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02482220428434177</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02124557116441859</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01999958092250254</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02030247145715056</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.02163113838304207</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0236335378951876</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02607142524283084</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02878281263927949</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.03165717505556345</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03461893907024333</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.03761640001413876</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04061422962725431</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.04358837957646805</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0465225962608071</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.04940602664743009</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05223156716791422</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05499472119642236</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0576928061013089</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06032440145882428</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06288896417537491</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.06538655945985165</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.067817672416561</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07018307587710386</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07248373755090197</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07472075472255124</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.07689530828695343</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.07900863038502873</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.08106198162197037</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08305663504832371</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0849938649213119</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08687493884980518</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.08870111233736554</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09047362502665589</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.09219369815186376</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.09386253284929043</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09548130907759249</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.09705118497096793</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.09857329649943782</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1000487573465099</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1014786589402397</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1028640705919809</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2116818083913251</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1435538624320667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.09673490188087261</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.06463943247322443</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.04267703900511668</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02767718028055131</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.017457403569732</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01051757419349906</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.00582730533017083</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.00267916528314702</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.0005875900579223987</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0007806333811165133</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001654134263170669</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.002189762955545088</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002495112267027153</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002643975103326537</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002686952320658774</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002658731748833955</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002583082787100822</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002476283473812252</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002349472010351461</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.002210260317906543</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.002063841244242284</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.001913748332461608</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001762377182212202</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001611343212325799</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001461727155876093</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.00131424351082756</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.001169356117464197</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.001027357450496842</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0008884230098744514</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.000752648623313909</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0006200760227483537</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0004907103748737348</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0003645322915298236</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0002415060532893331</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0001215852357508004</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4.716554782112706e-06</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.000109157509252408</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0002200969241055906</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.0003281628915315804</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.0004334170257525251</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.0005359208005564296</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.1043214558713224</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.07261291495926628</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05108388647927099</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03627322016892556</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0259612757111245</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01869153866984841</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01349328576088661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.009712832391043221</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00690694835745692</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.004773708195990989</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.003106788526478545</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.001764879462752741</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0006510367149274245</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.000301337068492629</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.001138047902146111</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.001890641662021945</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.002580876479333518</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.003223789213079686</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.003829799731934789</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.0044061556873909</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.004957924777887607</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.005488676323468855</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.006000949435482938</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.006496574572270767</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.006976894361130207</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.00744291521285986</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.007895411395186895</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.008334996455395524</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.008762172224802063</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.009177362435803169</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.009580935781099366</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.009973221731742577</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01035452139088856</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01072511494571124</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01108526678929232</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01143522904730588</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01177524401308718</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.0121055458360114</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.0124263616992821</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01273791264866516</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01304041418259783</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01333407667915692</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.0136191057113804</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.05812479999233499</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.0378571201255626</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02457426612449171</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01568352588137642</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.009688129591713472</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.005639024284985637</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.00290930548434554</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.001077540934041518</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.000141865203167496</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0009432669256860416</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.001459255757103198</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.001780436973956245</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.001968796991033681</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.002066778673269922</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00210346046427923</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002098772193030268</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.002066375778586605</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.002015635981921522</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001952969911100164</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001882771824674</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001808047291683368</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001730848281794849</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001652571811383933</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001574165015007837</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001496266010351554</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001419300688553077</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.00134354923784972</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001269191875540623</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001196340292667993</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001125059278218487</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.001055381591379898</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.000987318190473156</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0009208652679330608</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0008560090879030924</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0007927293117598207</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.000731001282992751</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0006707975958271301</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0006120891707616591</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0005548459907086462</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.000499037603480885</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0004446334634513876</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0003916031625548497</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0003399165851603592</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.04175311273601121</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.02814077563383131</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01886563941338222</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01257558104361413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.008325471969869809</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0054664147382059</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003555456541320315</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002290701170314528</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001466379082167613</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0009421451809667662</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0006221966195372775</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.000441084626810672</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0003540690288388325</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0003305529792490652</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0003496080605636641</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0003969201938533742</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0004627028859135227</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0005402701061170243</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0006250595711498839</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0007139639154242434</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0008048725066394483</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0008963574748087661</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0009874585239180128</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001077535432463999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001166166948615153</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001253081490218158</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001338109650034139</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001421151651064119</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001502155051703274</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001581099477734022</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001657986171027423</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.00173283083943253</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001805658768693972</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001876501483932654</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001945394472304434</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.002012375632094822</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.002077484218870822</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002140760131566799</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002202243430893924</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002261974016400096</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002319991411777016</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002376334623932947</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.002431042052260516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.007668184404015363</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.004447440027258484</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.002554555133074404</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001420452546842339</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.000720296369398098</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002734304164592219</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2.165189648247861e-05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0002233428505339768</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0003661665257871481</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.000471088363626492</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0005511483248122417</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.000614623288834398</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0006668550354584475</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0007113373963872241</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.0007503798762400473</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0007855220682416286</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0008177974567248574</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.0008479039927591056</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0008763157669079201</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.0009033568244303619</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.0009292503106584633</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.000954151364750829</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.0009781692179708413</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.001001382076176991</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.001023847157568204</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.001045607467520822</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001066696371489808</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001087140680307521</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001106962730062156</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001126181782561039</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001144814966986384</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.001162877912046463</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.00118038516965287</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.001197350498417873</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.001213787053115824</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.001229707511210638</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001245124157395373</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.001260048940209737</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.001274493510161513</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.001288469245648335</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.001301987270876571</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.001315058468552146</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.001327693489185036</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02443920444232597</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01428359028765449</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00788027886078322</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003759908163427693</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001082938192153226</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.0006577737427893495</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.001781185903342806</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.002493475610198352</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.00293034155450622</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.003182152275690841</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.003309554858093276</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.003353458320070883</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.003341550627137223</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.003292611953609125</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.003219396374991347</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.003130569715108627</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.003032018678556989</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.002927738147115548</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.002820433984546674</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.002711933262877662</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.002603463775351762</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.002495844651679469</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.002389616426629069</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.002285129827831337</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.002182606396886545</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.002082179881554485</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.001983924496029175</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.001887874211214585</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.001794035917293484</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.001702398400315741</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.001612938459536957</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.001525625072118098</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.001440422224704182</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.001357290835198831</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.001276190053925172</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.001197078141714527</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.001119913059789891</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.001044652863521122</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.0009712559628556916</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.0008996812922687397</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.0008298884194028898</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.0007618376122897341</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.0006954898786544457</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.003342433119964927</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.002875600245152229</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.002168706070588577</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001560497712794533</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001117812668439461</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008248572746537697</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0006478157035199395</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0005548614256806696</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0005208858755479949</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0005274081294176668</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0005612668685542441</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0006132507748789725</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0006769769326582669</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.000748050025735032</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0008234571304150926</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0009011411117859031</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0009797033574795503</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.001058197998550083</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.001135990011442962</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.001212657593024848</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.001287925083599837</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.001361616912019992</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.001433625984901664</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.001503891991687168</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.001572386514069556</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.001639102804137732</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.001704048766223413</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.0017672421376722</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.001828707179414318</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.001888472403583293</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.001946569013795225</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.002003029835378348</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.002057888582601115</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.00211117935779564</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.002162936310114306</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.002213193404197037</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002261984264547987</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.002309342072039545</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002355299496318957</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.002399888652922047</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.00244314107736485</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.002485087710897794</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002525758894238695</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>3.974342556729667e-05</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.0001103004714026071</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.348872741992022e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-9.262604453682852e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0001591676740688626</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.0001949344582841137</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.0002077939077783464</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.0002047068614277198</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0001908646030858859</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.0001699415218130267</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.0001444854432090344</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.0001162442216074786</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-8.640760662867913e-05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-5.577946458351545e-05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-2.489846122194774e-05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.878085347226777e-06</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.631628038653728e-05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.626583008122926e-05</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.563278180675853e-05</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0001243609405938886</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0001524192519242268</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0001797932710702807</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0002064794208182598</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0002324811446583467</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0002578063435281796</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0002824656782674721</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0003064714534501129</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0003298368898102134</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0003525756550268402</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0003747015652460797</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0003962283986334608</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0004171697818330369</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0004375391233773356</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0004573495769587047</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0004766140233834314</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0004953450639594386</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0005135550206754241</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0005312559402302952</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0005484596000878555</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0005651775154429919</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0005814209464570537</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0005972009053865091</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.000612528163427893</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -635,6 +2021,132 @@
       </c>
       <c r="E12" t="n">
         <v>0.0003671145358724208</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0002531869369732884</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0001820300876898205</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0001346709916949766</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.000102046575837604</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.90345368237e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.246716916853942e-05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.028832402715894e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.112777793470052e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.405892528811e-05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.844975033898284e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.386681076191056e-05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.001169056554622e-05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.667828739787469e-05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.372384148239222e-05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.104917458681948e-05</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.585160680299622e-06</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.283437857911506e-06</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.110018063944379e-06</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.04088220356608e-06</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5.893855265188551e-08</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-1.848080993282739e-06</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-3.689078359412744e-06</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-5.470600647520264e-06</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-7.197543091540332e-06</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-8.873638476495765e-06</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-1.050179847938708e-05</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-1.208435214997609e-05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-1.362321284295585e-05</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-1.511999528934594e-05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-1.657609787361609e-05</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-1.79927605874896e-05</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-1.937110594584056e-05</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-2.071216795913157e-05</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-2.201691271276039e-05</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-2.328625302866083e-05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-2.452105897387082e-05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-2.572216541034646e-05</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-2.689037746912029e-05</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-2.802647454807935e-05</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-2.913121324831926e-05</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-3.020532957239849e-05</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-3.124954057854719e-05</v>
       </c>
     </row>
   </sheetData>
